--- a/real_estate.xlsx
+++ b/real_estate.xlsx
@@ -2,24 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hagma_w\Desktop\Python_for_Excel\Monte_Carlo1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hagma_w\Desktop\Python_for_Excel\Monte_Carlo2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9586D1-6005-4B4D-AE64-A4297B80DC32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0F7128-75D3-437D-84A8-748EB96BE51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{67F96626-3EE9-4EBC-B0E1-CB2C377A3B57}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11775" xr2:uid="{67F96626-3EE9-4EBC-B0E1-CB2C377A3B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Calc" sheetId="1" r:id="rId2"/>
+    <sheet name="Monte_Carlo" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="cell">Calc!$B$16</definedName>
     <definedName name="cost">Input!$D$40</definedName>
-    <definedName name="cpi">Input!$D$20</definedName>
+    <definedName name="cpi">Calc!$B$3:$B$12</definedName>
     <definedName name="performance">Input!$G$24:$G$25</definedName>
     <definedName name="ppf">Input!$D$25</definedName>
   </definedNames>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Purchase Price</t>
   </si>
@@ -176,16 +177,50 @@
   </si>
   <si>
     <t>Total Loan Payments</t>
+  </si>
+  <si>
+    <t>Monte Carlo Simulation</t>
+  </si>
+  <si>
+    <t>Simulation Summary</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median (P50)</t>
+  </si>
+  <si>
+    <t>Internal Rate of Return</t>
+  </si>
+  <si>
+    <t>Shortfall Risk</t>
+  </si>
+  <si>
+    <t>Number of Simulations</t>
+  </si>
+  <si>
+    <t>CPI Assumptions</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>PPF Assumptions</t>
+  </si>
+  <si>
+    <t>Costs Assumptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +279,30 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -582,6 +641,24 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -604,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -722,9 +799,6 @@
     <xf numFmtId="3" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -741,17 +815,56 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1132,7 +1245,9 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1354,10 +1469,10 @@
       </c>
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="102"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
@@ -1368,10 +1483,10 @@
       <c r="D24" s="64">
         <v>47848</v>
       </c>
-      <c r="F24" s="103" t="s">
+      <c r="F24" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="104">
+      <c r="G24" s="103">
         <f>SUM(Calc!J3:J13)/-Calc!J2</f>
         <v>2.08259459669125</v>
       </c>
@@ -1385,10 +1500,10 @@
       <c r="D25" s="57">
         <v>25</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="106">
+      <c r="G25" s="105">
         <f>XIRR(Calc!J2:J13,Calc!A2:A13)</f>
         <v>8.0664619803428678E-2</v>
       </c>
@@ -1530,7 +1645,7 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1568,13 +1683,13 @@
       <c r="H1" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="112"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="89">
@@ -1605,7 +1720,7 @@
         <f>C2+D2+H2+I2</f>
         <v>-45250000</v>
       </c>
-      <c r="K2" s="97" t="s">
+      <c r="K2" s="127" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1641,12 +1756,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="108">
-        <f t="shared" ref="J3:J13" si="2">MAX(0, C3+D3+H3+I3)</f>
+      <c r="I3" s="99"/>
+      <c r="J3" s="107">
+        <f t="shared" ref="J3:J12" si="2">MAX(0, C3+D3+H3+I3)</f>
         <v>641542.40092260623</v>
       </c>
-      <c r="K3" s="113" t="s">
+      <c r="K3" s="133" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1683,12 +1798,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I4" s="100"/>
-      <c r="J4" s="108">
+      <c r="I4" s="99"/>
+      <c r="J4" s="107">
         <f t="shared" si="2"/>
         <v>741542.40092260577</v>
       </c>
-      <c r="K4" s="114"/>
+      <c r="K4" s="134"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="67">
@@ -1723,12 +1838,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="108">
+      <c r="I5" s="99"/>
+      <c r="J5" s="107">
         <f t="shared" si="2"/>
         <v>844042.4009226053</v>
       </c>
-      <c r="K5" s="114"/>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="67">
@@ -1763,12 +1878,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="108">
+      <c r="I6" s="99"/>
+      <c r="J6" s="107">
         <f t="shared" si="2"/>
         <v>949104.9009226053</v>
       </c>
-      <c r="K6" s="114"/>
+      <c r="K6" s="134"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="67">
@@ -1803,12 +1918,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="108">
+      <c r="I7" s="99"/>
+      <c r="J7" s="107">
         <f t="shared" si="2"/>
         <v>1056793.9634226053</v>
       </c>
-      <c r="K7" s="114"/>
+      <c r="K7" s="134"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="67">
@@ -1843,12 +1958,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I8" s="100"/>
-      <c r="J8" s="108">
+      <c r="I8" s="99"/>
+      <c r="J8" s="107">
         <f t="shared" si="2"/>
         <v>1167175.2524851053</v>
       </c>
-      <c r="K8" s="114"/>
+      <c r="K8" s="134"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="67">
@@ -1883,12 +1998,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="108">
+      <c r="I9" s="99"/>
+      <c r="J9" s="107">
         <f t="shared" si="2"/>
         <v>1280316.0737741678</v>
       </c>
-      <c r="K9" s="114"/>
+      <c r="K9" s="134"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="67">
@@ -1923,12 +2038,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I10" s="100"/>
-      <c r="J10" s="108">
+      <c r="I10" s="99"/>
+      <c r="J10" s="107">
         <f t="shared" si="2"/>
         <v>1396285.4155954565</v>
       </c>
-      <c r="K10" s="114"/>
+      <c r="K10" s="134"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="67">
@@ -1963,12 +2078,12 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="J11" s="108">
+      <c r="I11" s="99"/>
+      <c r="J11" s="107">
         <f t="shared" si="2"/>
         <v>1515153.9909622776</v>
       </c>
-      <c r="K11" s="114"/>
+      <c r="K11" s="134"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="67">
@@ -2003,20 +2118,20 @@
         <f>-Input!$D$40</f>
         <v>-250000</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="J12" s="109">
+      <c r="I12" s="99"/>
+      <c r="J12" s="108">
         <f t="shared" si="2"/>
         <v>1636994.280713269</v>
       </c>
-      <c r="K12" s="115"/>
+      <c r="K12" s="135"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="89">
         <f>Input!D24</f>
         <v>47848</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="91">
         <f>F13</f>
         <v>-44999999.999999993</v>
@@ -2036,45 +2151,45 @@
         <v>128008454.41963573</v>
       </c>
       <c r="J13" s="95">
-        <f t="shared" si="2"/>
+        <f>MAX(0, C13+D13+H13+I13)</f>
         <v>83008454.419635743</v>
       </c>
-      <c r="K13" s="97" t="s">
+      <c r="K13" s="127" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="125"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="110"/>
+      <c r="B16" s="125"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="110"/>
+      <c r="B17" s="125"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="110"/>
+      <c r="B18" s="125"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="110"/>
+      <c r="B19" s="125"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="110"/>
+      <c r="B20" s="125"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="111"/>
+      <c r="B21" s="126"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="110"/>
+      <c r="B22" s="125"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="110"/>
+      <c r="B23" s="125"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="110"/>
+      <c r="B24" s="125"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="110"/>
+      <c r="B25" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2083,4 +2198,400 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7378A24B-349C-44E0-8FA3-085706B5FAB0}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AW185"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.77734375" style="65" customWidth="1"/>
+    <col min="2" max="2" width="3.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3.21875" style="65" customWidth="1"/>
+    <col min="7" max="7" width="3.5546875" style="65" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" style="65" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="65" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="65" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" style="65" customWidth="1"/>
+    <col min="12" max="49" width="8.88671875" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" s="65" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
+    </row>
+    <row r="3" spans="2:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="112"/>
+      <c r="C3" s="113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="114"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="114"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="112"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="114"/>
+      <c r="G4" s="112"/>
+      <c r="I4" s="115" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="114"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="112"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="114"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="129"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="112"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="114"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="130"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="112"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="114"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="136"/>
+      <c r="J7" s="136"/>
+      <c r="K7" s="137"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="112"/>
+      <c r="C8" s="116" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="117">
+        <v>100</v>
+      </c>
+      <c r="E8" s="114"/>
+      <c r="G8" s="118"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="120"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="112"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="114"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="112"/>
+      <c r="C10" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="121"/>
+      <c r="E10" s="114"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="112"/>
+      <c r="C11" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="122">
+        <v>0.02</v>
+      </c>
+      <c r="E11" s="114"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="112"/>
+      <c r="C12" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="122">
+        <v>0.01</v>
+      </c>
+      <c r="E12" s="114"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B13" s="112"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="114"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="112"/>
+      <c r="C14" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="121"/>
+      <c r="E14" s="114"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="112"/>
+      <c r="C15" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="124">
+        <v>23</v>
+      </c>
+      <c r="E15" s="114"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="112"/>
+      <c r="C16" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="124">
+        <v>3</v>
+      </c>
+      <c r="E16" s="114"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="112"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="114"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="112"/>
+      <c r="C18" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="121"/>
+      <c r="E18" s="114"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="112"/>
+      <c r="C19" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="117">
+        <v>250000</v>
+      </c>
+      <c r="E19" s="114"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="112"/>
+      <c r="C20" s="123" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="108">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="114"/>
+    </row>
+    <row r="21" spans="2:5" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="118"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120"/>
+    </row>
+    <row r="22" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:5" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="126" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="127" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="128" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="129" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="130" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="131" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="132" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="133" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="134" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="135" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="136" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="137" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="138" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="139" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="140" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="141" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="142" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="143" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="144" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="145" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="146" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="147" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="148" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="149" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="150" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="151" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="152" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="170" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="171" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="172" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="173" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="174" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="175" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="176" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="177" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="178" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="179" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="180" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="181" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="182" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="183" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="184" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="185" s="65" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I7:K7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>